--- a/assets/SocceroosGraph.xlsx
+++ b/assets/SocceroosGraph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10078975bf70c333/Documents/Fun Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10078975bf70c333/Documents/GitHub/my-first-blog/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="648" documentId="8_{8D75F9CA-D93F-419C-9F5B-C38232DEFADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D003E37-6C12-4026-B4D7-E4F80B7C108A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0D7DA6B-B1FF-4FE4-B416-7E79E6962CE2}"/>
+    <workbookView xWindow="8268" yWindow="1836" windowWidth="12720" windowHeight="8556" xr2:uid="{E0D7DA6B-B1FF-4FE4-B416-7E79E6962CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -201,10 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC278FA9-FB03-43FC-B76D-06D77F423AC4}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
